--- a/Question_Set2/Role-specific skills/Training and Development.xlsx
+++ b/Question_Set2/Role-specific skills/Training and Development.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are the training manager for a rapidly expanding tech company. The company has recently onboarded five new employees. You must identify their training needs to ensure they can start contributing as soon as possible. You aim to design a comprehensive training needs analysis that identifies areas of improvement for each new employee.What is the most effective approach to conducting this analysis for the five new hires?', 'ques_type': 2, 'options': ['Conduct individual interviews with the new employees, observe them in their new roles, and gather supervisor feedback.', 'Send out a company-wide survey to collect data about general training needs, determine which are most relevant to the employees’ roles, and target these needs.', 'Review each new employee’s job description, identify the necessary skills and knowledge for their jobs, and develop training based on these.', 'Ask the new hires to self-assess their skills and knowledge, identify the most common themes, and design training programs based on their common responses.'], 'score': 'Conduct individual interviews with the new employees, observe them in their new roles, and gather supervisor feedback.'}, {'title': 'You are an instructional designer at a technology company. You are creating a new training program for the customer service team to introduce a new software product the company will launch. The team comprises 10 individuals with different learning styles and knowledge levels about the product. Some team members prefer visual aids, while others prefer hands-on exercises. You must create an engaging program that ensures they can handle customer questions effectively with limited resources and time. How should you accommodate these different learning styles?', 'ques_type': 2, 'options': ['Use the instructional method with which you are most comfortable.', 'Design separate programs for each learning style.', 'Incorporate a variety of instructional methods into the program.', 'Ask the team to vote on which instructional method you should use.'], 'score': 'Incorporate a variety of instructional methods into the program.'}, {'title': 'You are a training manager at a mid-sized marketing agency. You recently launched a new training program on the latest digital marketing trends. The training program was delivered to 50 employees across different departments. Now, you must evaluate the training program’s effectiveness. You want to ensure the training has met its objectives and positively impacted employee performance.What should be your first step in gathering training evaluation data?', 'ques_type': 2, 'options': ['Directly interview department heads to request feedback on the training.', "Assess changes in the company's overall performance after 30 days.", 'Evaluate the strengths and limitations of the program yourself. ', 'Ask for immediate feedback from participants after the training.'], 'score': 'Ask for immediate feedback from participants after the training.'}, {'title': "You are a human resources manager at a software development company. You are creating employee development plans for the team leads in different departments. You aim to ensure that these individuals have the necessary skills and knowledge to effectively lead their teams and contribute to the company's overall growth. What should be your first step in creating development plans for these employees?", 'ques_type': 2, 'options': ['Assign leadership training to each team lead to strengthen essential skills for this job. ', 'Assign training partners to each team lead to engage them in learning.', 'Ask each team lead what they want to learn next to facilitate self-directed learning.', 'Conduct a performance review to identify each team lead’s strengths and areas for improvement.'], 'score': 'Conduct a performance review to identify each team lead’s strengths and areas for improvement.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are the training manager for a rapidly expanding tech company. The company has recently onboarded five new employees. You must identify their training needs to ensure they can start contributing as soon as possible. You aim to design a comprehensive training needs analysis that identifies areas of improvement for each new employee.What is the most effective approach to conducting this analysis for the five new hires?",
+        "ques_type": 2,
+        "options": [
+            "Conduct individual interviews with the new employees, observe them in their new roles, and gather supervisor feedback.",
+            "Send out a company-wide survey to collect data about general training needs, determine which are most relevant to the employees\u2019 roles, and target these needs.",
+            "Review each new employee\u2019s job description, identify the necessary skills and knowledge for their jobs, and develop training based on these.",
+            "Ask the new hires to self-assess their skills and knowledge, identify the most common themes, and design training programs based on their common responses."
+        ],
+        "score": "Conduct individual interviews with the new employees, observe them in their new roles, and gather supervisor feedback."
+    },
+    {
+        "title": "You are an instructional designer at a technology company. You are creating a new training program for the customer service team to introduce a new software product the company will launch. The team comprises 10 individuals with different learning styles and knowledge levels about the product. Some team members prefer visual aids, while others prefer hands-on exercises. You must create an engaging program that ensures they can handle customer questions effectively with limited resources and time. How should you accommodate these different learning styles?",
+        "ques_type": 2,
+        "options": [
+            "Use the instructional method with which you are most comfortable.",
+            "Design separate programs for each learning style.",
+            "Incorporate a variety of instructional methods into the program.",
+            "Ask the team to vote on which instructional method you should use."
+        ],
+        "score": "Incorporate a variety of instructional methods into the program."
+    },
+    {
+        "title": "You are a training manager at a mid-sized marketing agency. You recently launched a new training program on the latest digital marketing trends. The training program was delivered to 50 employees across different departments. Now, you must evaluate the training program\u2019s effectiveness. You want to ensure the training has met its objectives and positively impacted employee performance.What should be your first step in gathering training evaluation data?",
+        "ques_type": 2,
+        "options": [
+            "Directly interview department heads to request feedback on the training.",
+            "Assess changes in the company's overall performance after 30 days.",
+            "Evaluate the strengths and limitations of the program yourself. ",
+            "Ask for immediate feedback from participants after the training."
+        ],
+        "score": "Ask for immediate feedback from participants after the training."
+    },
+    {
+        "title": "You are a human resources manager at a software development company. You are creating employee development plans for the team leads in different departments. You aim to ensure that these individuals have the necessary skills and knowledge to effectively lead their teams and contribute to the company's overall growth. What should be your first step in creating development plans for these employees?",
+        "ques_type": 2,
+        "options": [
+            "Assign leadership training to each team lead to strengthen essential skills for this job. ",
+            "Assign training partners to each team lead to engage them in learning.",
+            "Ask each team lead what they want to learn next to facilitate self-directed learning.",
+            "Conduct a performance review to identify each team lead\u2019s strengths and areas for improvement."
+        ],
+        "score": "Conduct a performance review to identify each team lead\u2019s strengths and areas for improvement."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
